--- a/GenericScenarioEvaluation/Reviewed Scenarios/BB/Material Fabrication Process for Manufacture of Printed Circuits Boards Draft.xlsx
+++ b/GenericScenarioEvaluation/Reviewed Scenarios/BB/Material Fabrication Process for Manufacture of Printed Circuits Boards Draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/barrett_williamm_epa_gov/Documents/Profile/Desktop/GS Review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WBARRETT\Environmental Protection Agency (EPA)\CSS RA-2 Project Team - General\Bill Paper - Generic Scenario Review\Reviewed Scenarios\BB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{D21B3DA9-9B20-429C-8408-69FD36AE1659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{35C55E07-BB69-49BC-8379-934C2CDB7593}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99624EBE-4060-4783-AF37-2099B80B1BD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AEE7231D-D110-46BA-BB08-35ECB9C6F51B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AEE7231D-D110-46BA-BB08-35ECB9C6F51B}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="227">
   <si>
     <t>Included? (Y or N)</t>
   </si>
@@ -677,12 +677,6 @@
   </si>
   <si>
     <t>Liquid waste containing PMN is expected to be negligible because there are few liquid cleaning steps but could arise when cleaning process equipment, tanks, and other containers. Because these operations are nonroutine, PMN emissions would have to be estimated on a case-by-case basis.</t>
-  </si>
-  <si>
-    <t>Worker Exposure</t>
-  </si>
-  <si>
-    <t>Worker exposure to the PMN chemical potentially could occur during the resin preparation, resin impregnation, and curing steps where workers may be involved in application and handling operations. Tbe extent of worker exposure would depend on the type of process equipment and the extent to which the workers come into direct contact with the resin. Accurate quantification of the various potential exposure routes is difficult with the limited information available. For this generic scenario, the various potential routes are discussed qualitatively.</t>
   </si>
   <si>
     <t>Inhalation is expected to be an impontant route of worker exposure and will be significant if the PMN chemical is volatile. To detetmine the extent of inhalation exposure, typical air concentrations of PMNs during resin preparation, impregnation, and curing are measured. If data on the PMN air concentrations are not available, concentrations of suitable surrogate chemicals used in current resin formulations could be utilized. If the volatility of the surrogates is similar to the PMN volatility, and if both chemicals are mixed to form the resin using similar process steps, then measurements of the air concentrations of the surrogate chemical could be used to estimate potential exposure to the PMN chemical.</t>
@@ -728,6 +722,9 @@
   <si>
     <t>The containers used to transport the PMN chemical to the facility are assumed to be recycled, cleaned to remove contamination, and appropriately landfilled or incinerated. All liquid and water wastes are assumed to be reused, reprocessed, or air-dried and disposed of as solid wastes. Solid wastes containing the PMN chemical are assumed to be disposed of using appropriate mechanism. 
 Release of the PMN chemical to the environment could also occur as a result of tbe retention of PMN in the cured printed circuit board. The implications of this release may need to be addressed for the PMN chemical.</t>
+  </si>
+  <si>
+    <t>Assumed Negligible</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE2C11F-6A25-4CA6-B493-2A0028270B50}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,12 +1416,18 @@
       <c r="C2" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1434,12 +1437,18 @@
       <c r="C3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1449,44 +1458,78 @@
       <c r="C4" s="23" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="390" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="390" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>226</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A9927E5-BFB8-4401-AE2F-AB76BFD8B5C5}">
+          <x14:formula1>
+            <xm:f>EntryData!$M$2:$M$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G3 G5:G6 G8:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{796FD426-CF43-420F-8C21-B99E2E9BE5B6}">
+          <x14:formula1>
+            <xm:f>EntryData!$M$2:$M$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4 G7</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A0F14524-26CE-4B40-96EB-55127065C555}">
           <x14:formula1>
             <xm:f>EntryData!$D$2:$D$24</xm:f>
@@ -1505,12 +1548,6 @@
           </x14:formula1>
           <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A9927E5-BFB8-4401-AE2F-AB76BFD8B5C5}">
-          <x14:formula1>
-            <xm:f>EntryData!$M$2:$M$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1521,7 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78077DBB-A397-46CD-B146-C677BF2ED83E}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1774,10 +1811,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>47</v>
@@ -1796,7 +1833,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1804,7 +1841,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I11" s="7"/>
       <c r="K11" s="7"/>
@@ -1816,7 +1853,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1824,7 +1861,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I12" s="7"/>
       <c r="K12" s="7"/>
@@ -1836,10 +1873,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>223</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>172</v>
@@ -1858,7 +1895,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1866,7 +1903,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I14" s="7"/>
       <c r="K14" s="7"/>
@@ -2015,7 +2052,7 @@
   <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,6 +2140,9 @@
       <c r="F4" t="s">
         <v>136</v>
       </c>
+      <c r="M4" t="s">
+        <v>226</v>
+      </c>
       <c r="P4" t="s">
         <v>179</v>
       </c>
@@ -2581,45 +2621,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2021-03-04T14:13:47+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F11D2A2FBBEED40A750386529AFE883" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a7fcd2fa88e0328b3b0dd9ef335fe48c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="241d41d8-5778-4e30-b44e-dee891c66b79" xmlns:ns6="af43f131-d884-42a1-ba66-3c1404ec48fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a2a87f8101accce6a0d0ea40fd00900" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3052,21 +3067,85 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2021-03-04T14:13:47+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9A4B38-4D52-46C0-9803-4EB30CC27F1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3227138-1B8A-4733-BA76-D224862EAA4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97638C2C-1021-4EB5-87A7-BF22D22C8B9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="241d41d8-5778-4e30-b44e-dee891c66b79"/>
+    <ds:schemaRef ds:uri="af43f131-d884-42a1-ba66-3c1404ec48fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27FAEFF-543C-4C30-A571-905BD321BEF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3085,24 +3164,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97638C2C-1021-4EB5-87A7-BF22D22C8B9F}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3227138-1B8A-4733-BA76-D224862EAA4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9A4B38-4D52-46C0-9803-4EB30CC27F1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>